--- a/Project/workers.xlsx
+++ b/Project/workers.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandan\Documents\IACFPYTHON\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8EFDF-68EB-4B26-944C-CA29598824BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69943962-FE43-4B94-B5BC-600588C1EBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7148B9F2-8A08-42F9-98F8-4A3AF33FCF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7148B9F2-8A08-42F9-98F8-4A3AF33FCF2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,63 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>메일</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>hong@abcd.co.kr</t>
+  </si>
+  <si>
+    <t>고길동</t>
+  </si>
+  <si>
+    <t>go@abcd.co.kr</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>계좌번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89900100056880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89900100056881</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@abcd.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go@abcd.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>메일</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>hong@abcd.co.kr</t>
-  </si>
-  <si>
-    <t>고길동</t>
-  </si>
-  <si>
-    <t>go@abcd.co.kr</t>
   </si>
 </sst>
 </file>
@@ -142,11 +107,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -485,65 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF03E7D7-1057-46BD-8F7E-CF2BFF18BC78}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F962B2A-94B0-4AA3-B00F-7FECA1A754BE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,35 +461,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>89900100056880</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>89900100056881</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
